--- a/static/route.xlsx
+++ b/static/route.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morning\Documents\WeChat Files\wxid_pv2qqr16e4k622\FileStorage\File\2023-05\Project(3)\Project\neo4j_python_controller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morning\Desktop\hiwi\3dplot\3dgraph\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18C5F66-3002-4BB7-BFD6-DE4DA75C808B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF3BC76-D5B8-4245-9F08-5EA732BA11A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{76758D37-B791-4224-B24C-25C92DFA1102}"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="16200" windowHeight="27970" xr2:uid="{76758D37-B791-4224-B24C-25C92DFA1102}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,41 +213,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Data_acquisition</t>
-  </si>
-  <si>
-    <t>Data_access</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data_modeling</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Behavior_tracking</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Behavior_prediction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Behaviour_nudging</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wrong_user_group</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wrong_user_task</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Surprising_learning_result</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Index</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -309,6 +274,42 @@
   <si>
     <t>SS</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data acquisition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data access</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data modeling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behavior tracking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behavior prediction</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behaviour nudging</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrong user group</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrong user task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Surprising learning result</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -408,16 +409,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>368301</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>127711</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>172291</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>324697</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>149327</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>84107</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>133550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -440,8 +441,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8050037" y="4199819"/>
-          <a:ext cx="16492854" cy="8781800"/>
+          <a:off x="9096593" y="4025676"/>
+          <a:ext cx="16423011" cy="8835483"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -752,9 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4D949-554A-49C1-9A87-4D8068378879}">
   <dimension ref="A1:BP4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BF8" sqref="BF8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -764,10 +763,10 @@
   <sheetData>
     <row r="1" spans="1:68" ht="52" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -836,7 +835,7 @@
         <v>31</v>
       </c>
       <c r="Y1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="Z1" t="s">
         <v>32</v>
@@ -857,7 +856,7 @@
         <v>33</v>
       </c>
       <c r="AF1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="AG1" t="s">
         <v>19</v>
@@ -878,7 +877,7 @@
         <v>23</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>49</v>
@@ -929,43 +928,43 @@
         <v>40</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="BE1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="BI1" t="s">
         <v>28</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="BM1" t="s">
         <v>34</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.3">
@@ -1271,208 +1270,208 @@
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="P4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="Q4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="R4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="S4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="T4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="U4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="V4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="Z4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="AA4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="AB4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="AC4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="AD4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AE4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AF4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AG4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AH4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AI4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AJ4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AL4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AM4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AN4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AO4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AP4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AQ4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AR4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AS4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AT4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AU4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AV4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AW4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AX4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AY4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AZ4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="BA4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="BB4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="BC4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="BD4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="BE4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="BF4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="BG4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="BH4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="BI4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="BJ4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="BK4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="BL4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="BM4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="BN4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="BO4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="BP4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
